--- a/Jogos_do_Dia/2024-01-18_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-01-18_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.1</v>
+        <v>4.65</v>
       </c>
       <c r="K2" t="n">
-        <v>3.65</v>
+        <v>4.02</v>
       </c>
       <c r="L2" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -718,10 +718,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T2" t="n">
-        <v>1.95</v>
+        <v>2.13</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>5</v>
+        <v>5.11</v>
       </c>
       <c r="L3" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="T3" t="n">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>

--- a/Jogos_do_Dia/2024-01-18_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-01-18_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.65</v>
+        <v>4.2</v>
       </c>
       <c r="K2" t="n">
-        <v>4.02</v>
+        <v>3.75</v>
       </c>
       <c r="L2" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -718,10 +718,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="T2" t="n">
-        <v>2.13</v>
+        <v>2.05</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AB2" t="n">
         <v>1.31</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="K3" t="n">
-        <v>5.11</v>
+        <v>5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="T3" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
